--- a/iDivingWebSite.xlsx
+++ b/iDivingWebSite.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Git\iDivingWeb_Test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="14355" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="28035" windowHeight="14355"/>
   </bookViews>
   <sheets>
-    <sheet name="玩潛水" sheetId="1" r:id="rId1"/>
-    <sheet name="活動照片" sheetId="2" r:id="rId2"/>
-    <sheet name="學潛水" sheetId="3" r:id="rId3"/>
-    <sheet name="幹部群" sheetId="4" r:id="rId4"/>
-    <sheet name="廣告" sheetId="5" r:id="rId5"/>
-    <sheet name="臉書" sheetId="6" r:id="rId6"/>
+    <sheet name="Menu" sheetId="7" r:id="rId1"/>
+    <sheet name="玩潛水" sheetId="1" r:id="rId2"/>
+    <sheet name="活動照片" sheetId="2" r:id="rId3"/>
+    <sheet name="學潛水" sheetId="3" r:id="rId4"/>
+    <sheet name="幹部群" sheetId="4" r:id="rId5"/>
+    <sheet name="廣告" sheetId="5" r:id="rId6"/>
+    <sheet name="臉書" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="191">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +307,343 @@
   </si>
   <si>
     <t>Page/D210.php</t>
+  </si>
+  <si>
+    <t>LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俱樂部</t>
+  </si>
+  <si>
+    <t>俱樂部介紹</t>
+  </si>
+  <si>
+    <t>網頁名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B400</t>
+  </si>
+  <si>
+    <t>錨點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隱藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>入會辦法</t>
+  </si>
+  <si>
+    <t>俱樂部優惠</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>注意事項</t>
+  </si>
+  <si>
+    <t>年度出團計畫</t>
+  </si>
+  <si>
+    <t>年度出團計畫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZ01</t>
+  </si>
+  <si>
+    <t>活動照片</t>
+  </si>
+  <si>
+    <t>B240</t>
+  </si>
+  <si>
+    <t>愛潛水/裝備</t>
+  </si>
+  <si>
+    <t>關於 iDiving</t>
+  </si>
+  <si>
+    <t>iDiving 介紹</t>
+  </si>
+  <si>
+    <t>B210</t>
+  </si>
+  <si>
+    <t>聯絡方式</t>
+  </si>
+  <si>
+    <t>B310</t>
+  </si>
+  <si>
+    <t>匯款方式</t>
+  </si>
+  <si>
+    <t>代理品牌</t>
+  </si>
+  <si>
+    <t>Bare</t>
+  </si>
+  <si>
+    <t>Aquabionic</t>
+  </si>
+  <si>
+    <t>SharkSkin</t>
+  </si>
+  <si>
+    <t>Audaxpro</t>
+  </si>
+  <si>
+    <t>Light &amp; Motion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水肺潛水裝備</t>
+  </si>
+  <si>
+    <t>面鏡/呼吸管</t>
+  </si>
+  <si>
+    <t>防寒衣/背心頭套</t>
+  </si>
+  <si>
+    <t>手套/套鞋</t>
+  </si>
+  <si>
+    <t>蛙鞋</t>
+  </si>
+  <si>
+    <t>浮力調整裝置</t>
+  </si>
+  <si>
+    <t>調節器組</t>
+  </si>
+  <si>
+    <t>潛水電腦錶</t>
+  </si>
+  <si>
+    <t>自由潛水裝備</t>
+  </si>
+  <si>
+    <t>防寒衣</t>
+  </si>
+  <si>
+    <t>配重帶</t>
+  </si>
+  <si>
+    <t>長蛙</t>
+  </si>
+  <si>
+    <t>安全配備</t>
+  </si>
+  <si>
+    <t>周邊產品</t>
+  </si>
+  <si>
+    <t>裝備袋/防水袋</t>
+  </si>
+  <si>
+    <t>潛水燈具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潛水刀</t>
+  </si>
+  <si>
+    <t>扣具與掛架</t>
+  </si>
+  <si>
+    <t>浮力器材/捲線器</t>
+  </si>
+  <si>
+    <t>水底通訊配件</t>
+  </si>
+  <si>
+    <t>書籍雜誌</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>玩潛水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣</t>
+  </si>
+  <si>
+    <t>東北角</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>D120</t>
+  </si>
+  <si>
+    <t>D130</t>
+  </si>
+  <si>
+    <t>綠島</t>
+  </si>
+  <si>
+    <t>D140</t>
+  </si>
+  <si>
+    <t>D150</t>
+  </si>
+  <si>
+    <t>菲律賓</t>
+  </si>
+  <si>
+    <t>阿尼洛</t>
+  </si>
+  <si>
+    <t>D210</t>
+  </si>
+  <si>
+    <t>明多洛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜馬蓋地</t>
+  </si>
+  <si>
+    <t>薄荷島</t>
+  </si>
+  <si>
+    <t>北宿霧</t>
+  </si>
+  <si>
+    <t>印尼、馬來西亞</t>
+  </si>
+  <si>
+    <t>峇里島</t>
+  </si>
+  <si>
+    <t>柯摩多</t>
+  </si>
+  <si>
+    <t>四王國群島</t>
+  </si>
+  <si>
+    <t>西巴丹</t>
+  </si>
+  <si>
+    <t>D220</t>
+  </si>
+  <si>
+    <t>D310</t>
+  </si>
+  <si>
+    <t>馬爾地夫</t>
+  </si>
+  <si>
+    <t>D320</t>
+  </si>
+  <si>
+    <t>泰國斯米蘭</t>
+  </si>
+  <si>
+    <t>日本沖繩</t>
+  </si>
+  <si>
+    <t>iDiving 給你</t>
+  </si>
+  <si>
+    <t>特別註明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B240</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由潛水員 (FD)</t>
+  </si>
+  <si>
+    <t>FD LV1-3</t>
+  </si>
+  <si>
+    <t>CFD110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD 教練</t>
+  </si>
+  <si>
+    <t>水肺潛水員</t>
+  </si>
+  <si>
+    <t>開放水域潛水員</t>
+  </si>
+  <si>
+    <t>專長潛水員</t>
+  </si>
+  <si>
+    <t>進階潛水員</t>
+  </si>
+  <si>
+    <t>C120</t>
+  </si>
+  <si>
+    <t>C310</t>
+  </si>
+  <si>
+    <t>C210</t>
+  </si>
+  <si>
+    <t>領導級潛水員</t>
+  </si>
+  <si>
+    <t>潛水教練</t>
+  </si>
+  <si>
+    <t>高階教練</t>
+  </si>
+  <si>
+    <t>C410</t>
+  </si>
+  <si>
+    <t>C420</t>
+  </si>
+  <si>
+    <t>C430</t>
+  </si>
+  <si>
+    <t>開課計畫</t>
+  </si>
+  <si>
+    <t>BZ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即報名</t>
+  </si>
+  <si>
+    <t>CZ01</t>
+  </si>
+  <si>
+    <t>教練團FB</t>
+  </si>
+  <si>
+    <t>B230</t>
   </si>
 </sst>
 </file>
@@ -392,6 +735,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -439,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,7 +820,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,10 +1029,914 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>129</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>175</v>
+      </c>
+      <c r="E62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" t="s">
+        <v>181</v>
+      </c>
+      <c r="E65" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -795,7 +2045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -944,11 +2194,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1057,7 +2307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1209,7 +2459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
@@ -1321,7 +2571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
